--- a/output/fit_clients/fit_round_7.xlsx
+++ b/output/fit_clients/fit_round_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>7718767854.797379</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.004885818640517111</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.03585461681047167</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>6.898429886117857</v>
-      </c>
-      <c r="M2" t="n">
-        <v>-0.2923472081473584</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-6.898429886117857</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>5802537902.371309</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.005181267051274304</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>6.550151961518045</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9592434076014462</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-6.550151961518045</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>5146317830.174321</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.002570223667334852</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6.53298048855194</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9712140447053923</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-6.53298048855194</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4051574096.796049</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.003914460058163218</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.871184277727334</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4.824246454689846</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.9492085067231401</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-4.824246454689846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>6569026000.600588</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002907104659641437</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4.789088031922662</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8780594345719059</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-4.789088031922662</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>8052979300.460433</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001021527642404477</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.03711612702816</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>6671090348.983361</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002863421984745975</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="L8" t="n">
-        <v>6.484399181729748</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9603378132389073</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-6.484399181729748</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>6184386164.103918</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.004837023321313807</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>6.44385826013395</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9155417495398018</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-6.44385826013395</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3391079783.036564</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.003504187821245952</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>6.546714837539731</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9873037669723487</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-6.546714837539731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>5123619226.313114</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001358070475834915</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.819149751257657</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.6626154102606585</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-3.819149751257657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>9374718266.539051</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001559152239300655</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.79575639573787</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9382057328446921</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-4.79575639573787</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>6092040419.78899</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.004348038359632734</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4.671845170175969</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.011476362451931</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-4.671845170175969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>6791663245.354757</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.003477339226030138</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.9957800161460385</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>7324558771.808231</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.005519588021785912</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.07881577776156</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>5279830986.173855</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.00534728377773928</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>6.644814067577511</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9393260913298938</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-6.644814067577511</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6766170666.10792</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002241979936107098</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4.62272008323021</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.884020572831309</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-4.62272008323021</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>4436777081.234117</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001222705927041915</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>6.52799775712977</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9493369846582219</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-6.52799775712977</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3619660150.900294</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002119223781811036</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>6.581919922938327</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9548532415969618</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-6.581919922938327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>4725750395.795984</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.00136662517380513</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.7222281008909215</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="L20" t="n">
-        <v>6.513001019291</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8550780389286414</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-6.513001019291</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>8320162818.082414</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.005792784126581281</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.9079090510449439</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>6.741641087364727</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.054904351536524</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-6.741641087364727</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4812069179.531931</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.004604357939155097</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.8028276176384406</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>6.679608395115304</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.9298344367552547</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-6.679608395115304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>6701679172.190494</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001845890191989297</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.9528724968249352</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>4.638792719681539</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.050313447085691</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-4.638792719681539</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>8181161734.738021</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003254771584305139</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.085610006362711</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>6429087190.752992</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003136720469387992</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.93435959422818</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.03331587114535</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.93435959422818</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>4520099418.565062</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001103569730754855</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>6.40745277922414</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.8840221045821162</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-6.40745277922414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>5762950805.330753</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003343891968449542</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>4.727542670332336</v>
-      </c>
-      <c r="M27" t="n">
-        <v>-0.5345224838248488</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-4.727542670332336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>5659080773.103579</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004648189709347139</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.9418113558834716</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>4.730294308318869</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.041263058143093</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-4.730294308318869</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>6732661648.584392</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001113599149235729</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>6.681038111937326</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.006271900358709</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-6.681038111937326</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>6405646631.608103</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.002977417544054857</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.9503661418244171</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>4.573636344416108</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.040436738444636</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-4.573636344416108</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>8015889308.840757</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.003105613003844321</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.947314762643847</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.8587041715780254</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-3.947314762643847</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>3694242789.052537</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.0009334092500236825</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="L32" t="n">
-        <v>6.862897828933793</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9701319086203462</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-6.862897828933793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>7736683625.949506</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002473568576315012</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.9460132224825438</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>8065729691.718386</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004556202373773065</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.8792579755407303</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>5812694210.957074</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002595059718296842</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>6.56973288625038</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9625228914450766</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-6.56973288625038</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>7574477082.585743</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.00331609083308641</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>3</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.2610307467446024</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.870627074449498</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.1723458961432595</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.870627074449498</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -2120,39 +1460,21 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>6223497948.234402</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.004574684036127257</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.122711140851144</v>
-      </c>
-      <c r="N37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3257981340.437214</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.004117332765199011</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>6.493990935365785</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.9460117911056969</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-6.493990935365785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>4320887542.542223</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002777010181435896</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.9657926414534049</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>6635367392.177699</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004008438687107326</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="L40" t="n">
-        <v>6.766121522667766</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.019751707072367</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-6.766121522667766</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>5452968993.694386</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.00126741981372888</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>6.596798984736584</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9482298824284716</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-6.596798984736584</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5676654014.606775</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.004297077182704873</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>4.601274149867599</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9426734318846873</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-4.601274149867599</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6739244289.258439</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.004143543809753548</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>6.695458574329749</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9559526732521219</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-6.695458574329749</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>5473924132.44741</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.002274662404326717</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>2</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="L44" t="n">
-        <v>4.823646850425249</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9155402705231502</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-4.823646850425249</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>4302500508.247403</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001447048105315055</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>6.858622565506546</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9894292947437396</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-6.858622565506546</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>9730776194.820755</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.003737788737076594</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.9482313104570589</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>9490588640.467344</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.003340733971590839</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.008358788661868</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>6170288388.463839</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002314070077400348</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.9888554081632667</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>6.623836442736992</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.161279516357625</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-6.623836442736992</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>4477510041.605516</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.005558592432561407</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>4</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.9298643033633106</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.511677867113677</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8695928014944218</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.511677867113677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>5506730753.693658</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.002773018917071249</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>6.648697967376149</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.015623129924874</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-6.648697967376149</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -2764,39 +1852,21 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>4693524742.459256</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004989698270135768</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" t="n">
-        <v>1.071978488020965</v>
-      </c>
-      <c r="N51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>8607522211.51963</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.002043300421725794</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>6.508439500317293</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8887622198475823</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-6.508439500317293</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>7034361578.12413</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002888394838800901</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.028981757304119</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>5168298230.04425</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.004939303173221276</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>2</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>4.62351093125581</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8199089868315171</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-4.62351093125581</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>9328823777.951056</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.004308546731729872</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.9868944155930526</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>6.566898498501672</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1.153648247016384</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-6.566898498501672</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>5386303299.360859</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.001947854651376767</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1.017690842672027</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>6564916282.343107</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.002977212547864169</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.9460132224825438</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>6541261893.966877</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002635544291370197</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>2</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>4.555381659637043</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.7991482581678139</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-4.555381659637043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>6727622518.434423</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003499693782693485</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>4.665817315389615</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8500999699557318</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-4.665817315389615</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>5649264557.872119</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.004086258699584784</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="L60" t="n">
-        <v>6.453886244691494</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8780609767217383</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-6.453886244691494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>5832259429.097345</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.004704322090243477</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734925</v>
-      </c>
-      <c r="L61" t="n">
-        <v>4.545883158784927</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.8513331023915316</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-4.545883158784927</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -3270,39 +2160,21 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>4308708808.664221</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003125396314238551</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.9883684722755173</v>
-      </c>
-      <c r="N62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>6171546178.509145</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.003747375055433199</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" t="n">
-        <v>1.03812844169281</v>
-      </c>
-      <c r="N63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>3819251254.654373</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.004636606908400381</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>6.535269759167806</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9201195015806424</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-6.535269759167806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>5721415886.038858</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.003765236445431155</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.111427325413341</v>
-      </c>
-      <c r="N65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>6099978235.036345</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003014078313919835</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>2</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>4.739788245405433</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.863584833426867</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-4.739788245405433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>5872182175.783698</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004264622300696623</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>6.663890498669216</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9028332567779213</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-6.663890498669216</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>6115075293.448068</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002186714711722786</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>2</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>4.570247155321965</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.6951105673332794</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-4.570247155321965</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>5683835417.670099</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001077081838013506</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>4.776364939124135</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9166868535433762</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-4.776364939124135</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>7523652223.164704</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.002456883044994654</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
         <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>7.392504448974719</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9109409932107527</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-7.392504448974719</v>
       </c>
     </row>
     <row r="71">
@@ -3684,39 +2412,21 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>4795613037.587417</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.002762916429961755</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.9074766111496397</v>
-      </c>
-      <c r="N71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>6367035492.393</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.001773875794605204</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.1504365784696</v>
-      </c>
-      <c r="N72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>5346197127.497622</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001385487572385739</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>6.557191292663215</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9776817087840605</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-6.557191292663215</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>5236384916.907993</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.00500861936097044</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" t="n">
-        <v>0</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.9862406582416563</v>
-      </c>
-      <c r="N74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>7753517263.071996</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.004510239195802731</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>2</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.907635773910492</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>4.786599705311557</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.9860494339218243</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-4.786599705311557</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>6006600491.480645</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002121281916308111</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.01421520953644617</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>6.66503811431661</v>
-      </c>
-      <c r="M76" t="n">
-        <v>-0.3475975467747678</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-6.66503811431661</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>7035913538.613993</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005809342545890355</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.066083052919331</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>4789804387.655457</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.004266288826918559</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>2</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>4.740152228482087</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.884020572831309</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-4.740152228482087</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>8404005083.538123</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002509836199675721</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>2</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>4.626645517121362</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.8946505338822891</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-4.626645517121362</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>4858705307.100613</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.003243312206313592</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>2</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="L80" t="n">
-        <v>5.000713737968214</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9460103597266842</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-5.000713737968214</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>6572930659.727673</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.003436802640986373</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>6.501986676803701</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9798281097775389</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-6.501986676803701</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>8182984968.065143</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.005717944152510223</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>6.65492147103363</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.9437884868399828</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-6.65492147103363</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>6805950635.226553</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002879386992114842</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.981971198116486</v>
-      </c>
-      <c r="N83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>6302512178.687193</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.004326767418991516</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>6.549066193577478</v>
-      </c>
-      <c r="M84" t="n">
-        <v>1.005227505066329</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-6.549066193577478</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>5036423753.939663</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.002687699597152346</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>2</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>4.644090307193576</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.8922992641241843</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-4.644090307193576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>7798062425.67595</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002423493090447665</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>2</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="L86" t="n">
-        <v>4.967118375865948</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9592419959666258</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-4.967118375865948</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>3273553285.962075</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.00144056810546436</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>2</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>4.68857172271162</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9712126504696126</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-4.68857172271162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>6751014346.688028</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.004151711347215856</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>2</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>4.636884287681577</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.7991482581678139</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-4.636884287681577</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>5011578448.007849</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.003538637727302695</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>2</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>4.809016262411022</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9028317569422499</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-4.809016262411022</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>7151358578.391703</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003300218075533615</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>2</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>4.632936735910533</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9005018491508642</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-4.632936735910533</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>6385656600.989413</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003718761248084626</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="L91" t="n">
-        <v>6.443086254731917</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8275616339257131</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-6.443086254731917</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>3455182474.354863</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.004036302049342235</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>2</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.3015979080588319</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>4.777095535948271</v>
-      </c>
-      <c r="M92" t="n">
-        <v>0.5151278727455347</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-4.777095535948271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>7074782189.321572</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001208474540076</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>6.59309122413377</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9679640071325231</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-6.59309122413377</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>6795415392.795513</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001161516395180166</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0</v>
-      </c>
-      <c r="L94" t="n">
-        <v>0</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.095242936983099</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>7246492107.183608</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002058216610273788</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>6.509817846871312</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9437884868399828</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-6.509817846871312</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>6056585986.505597</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.003084316174738855</v>
       </c>
       <c r="G96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0</v>
-      </c>
-      <c r="L96" t="n">
-        <v>0</v>
-      </c>
-      <c r="M96" t="n">
-        <v>1.058171381036448</v>
-      </c>
-      <c r="N96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>5631862266.630054</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004922071152405592</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0</v>
-      </c>
-      <c r="L97" t="n">
-        <v>0</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.9999905212522833</v>
-      </c>
-      <c r="N97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>6340054999.381103</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.003506130646149162</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
         <v>3</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.8521391834186097</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.690714164411435</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8467330906759125</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.690714164411435</v>
       </c>
     </row>
     <row r="99">
@@ -4972,39 +3196,21 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3880595696.346463</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.004005584541697866</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.7048002473985676</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0</v>
-      </c>
-      <c r="M99" t="n">
-        <v>1.025914740773187</v>
-      </c>
-      <c r="N99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>5445055162.626731</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002985947221506773</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>3</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.738394991157787</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.805829177013433</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.7010135654630879</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.805829177013433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>8457263068.23386</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001549391092104031</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>2</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.9303233493800189</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>4.988179243583221</v>
-      </c>
-      <c r="M101" t="n">
-        <v>1.030520479273582</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-4.988179243583221</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_7.xlsx
+++ b/output/fit_clients/fit_round_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>7718767854.797379</v>
+        <v>2369156450.812073</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004885818640517111</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
+        <v>0.1068519228300129</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03605560120028098</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1184578270.298665</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>5802537902.371309</v>
+        <v>2184111337.702752</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005181267051274304</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
+        <v>0.1332574190268392</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03945666886444617</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1092055736.894045</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5146317830.174321</v>
+        <v>4536118728.184285</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002570223667334852</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
+        <v>0.1111281956761496</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02833235066435006</v>
+      </c>
+      <c r="H4" t="b">
         <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2268059415.786577</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4051574096.796049</v>
+        <v>2726238851.652739</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003914460058163218</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.06782712236706788</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04128320128444781</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1363119513.098957</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>6569026000.600588</v>
+        <v>2596846845.146275</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002907104659641437</v>
-      </c>
-      <c r="G6" t="b">
+        <v>0.1279739017883064</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.03487653131642121</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>1</v>
       </c>
-      <c r="H6" t="n">
-        <v>1</v>
+      <c r="J6" t="n">
+        <v>1298423387.003772</v>
       </c>
     </row>
     <row r="7">
@@ -623,19 +663,25 @@
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>8052979300.460433</v>
+        <v>1994113184.492815</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001021527642404477</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
+        <v>0.07321799222106279</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04867955012759731</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>997056653.5712687</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>6671090348.983361</v>
+        <v>2508154524.143219</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002863421984745975</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
+        <v>0.1406894627002774</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.03066775414769242</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1254077268.690666</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>6184386164.103918</v>
+        <v>2250288683.792175</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004837023321313807</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
+        <v>0.1836410947599025</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03304992392039723</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1125144333.091425</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3391079783.036564</v>
+        <v>3904144017.861105</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003504187821245952</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1396314451140414</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.05070928831358665</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1952072022.901114</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>5123619226.313114</v>
+        <v>3097709355.450282</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001358070475834915</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1698207711398363</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04849987095140798</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1548854626.978092</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>9374718266.539051</v>
+        <v>2932358765.345154</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001559152239300655</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
+        <v>0.160176224859077</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04804429300600265</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1466179394.032978</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>6092040419.78899</v>
+        <v>3374763491.498673</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004348038359632734</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
+        <v>0.09245516463189554</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02145617410867734</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1687381831.596035</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>6791663245.354757</v>
+        <v>2543387567.675704</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003477339226030138</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
+        <v>0.1845187021006735</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0287168917050041</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1271693850.91188</v>
       </c>
     </row>
     <row r="15">
@@ -847,19 +935,25 @@
         <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>7324558771.808231</v>
+        <v>1777168170.338793</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005519588021785912</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
+        <v>0.09535937366611355</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0302288652334572</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>888584233.1383317</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>5279830986.173855</v>
+        <v>2261734841.10349</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00534728377773928</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
+        <v>0.08645460480014505</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03580411305932634</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1130867472.135682</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>6766170666.10792</v>
+        <v>3360024539.806055</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002241979936107098</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
+        <v>0.1441473176018468</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.05289374933696223</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1680012335.655355</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>4436777081.234117</v>
+        <v>2751522046.15867</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001222705927041915</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
+        <v>0.1689657420832198</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02570695048636176</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1375761070.754985</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3619660150.900294</v>
+        <v>1371257340.941792</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002119223781811036</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1237000334927305</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02159468509006371</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>685628788.0253216</v>
       </c>
     </row>
     <row r="20">
@@ -987,19 +1105,25 @@
         <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>4725750395.795984</v>
+        <v>2500566190.204822</v>
       </c>
       <c r="F20" t="n">
-        <v>0.00136662517380513</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
+        <v>0.1234248854629619</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02128280157080817</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1250283067.552797</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>8320162818.082414</v>
+        <v>2225960003.426246</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005792784126581281</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
+        <v>0.06859416993541109</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.02846863889699101</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1112980015.589805</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4812069179.531931</v>
+        <v>2817903962.260734</v>
       </c>
       <c r="F22" t="n">
-        <v>0.004604357939155097</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
+        <v>0.09481617827026045</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.03996971646812158</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1408952053.070742</v>
       </c>
     </row>
     <row r="23">
@@ -1071,19 +1207,25 @@
         <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>6701679172.190494</v>
+        <v>1531174417.714404</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001845890191989297</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
+        <v>0.1814384157159445</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.05086574030371033</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>765587189.1058238</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>8181161734.738021</v>
+        <v>3147151217.282855</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003254771584305139</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
+        <v>0.1194472132805098</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03747939738361551</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1573575633.514327</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>6429087190.752992</v>
+        <v>933107625.3954203</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003136720469387992</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
+        <v>0.1137736425745806</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02747466562429726</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>466553891.3767879</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>4520099418.565062</v>
+        <v>1037349005.412152</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001103569730754855</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1248513273081794</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0367543912591734</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>518674482.9809156</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>5762950805.330753</v>
+        <v>4313177493.980921</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003343891968449542</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
+        <v>0.1158906398503083</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02527537705723376</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2156588740.97219</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>5659080773.103579</v>
+        <v>2519260750.208292</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004648189709347139</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
+        <v>0.1474416779296679</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04411403125356714</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1259630344.04608</v>
       </c>
     </row>
     <row r="29">
@@ -1239,19 +1411,25 @@
         <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>6732661648.584392</v>
+        <v>4839637222.633798</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001113599149235729</v>
-      </c>
-      <c r="G29" t="b">
+        <v>0.1236622867369255</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.04186214011898414</v>
+      </c>
+      <c r="H29" t="b">
         <v>1</v>
       </c>
-      <c r="H29" t="n">
-        <v>1</v>
+      <c r="I29" t="n">
+        <v>3</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2419818569.268169</v>
       </c>
     </row>
     <row r="30">
@@ -1267,19 +1445,25 @@
         <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>6405646631.608103</v>
+        <v>1574519579.436618</v>
       </c>
       <c r="F30" t="n">
-        <v>0.002977417544054857</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
+        <v>0.1071178630387216</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.02481697315060496</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>787259778.2921988</v>
       </c>
     </row>
     <row r="31">
@@ -1295,19 +1479,25 @@
         <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>8015889308.840757</v>
+        <v>1437514770.761855</v>
       </c>
       <c r="F31" t="n">
-        <v>0.003105613003844321</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
+        <v>0.08220527837335591</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03809732436284297</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>718757280.2581216</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>3694242789.052537</v>
+        <v>1410913834.516539</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0009334092500236825</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.1161278223924809</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02750406331549221</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>705456966.6873415</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>7736683625.949506</v>
+        <v>3090111152.058281</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002473568576315012</v>
-      </c>
-      <c r="G33" t="b">
+        <v>0.1599646222984565</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.05505844687575639</v>
+      </c>
+      <c r="H33" t="b">
         <v>1</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1545055563.520277</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>8065729691.718386</v>
+        <v>1036958750.356454</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004556202373773065</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
+        <v>0.08788979453249093</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.01970730561305134</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>518479406.5753004</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>5812694210.957074</v>
+        <v>942780853.3485777</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002595059718296842</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
+        <v>0.09506122051518658</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03856188477053772</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>471390457.3753235</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>7574477082.585743</v>
+        <v>2458088871.035106</v>
       </c>
       <c r="F36" t="n">
-        <v>0.00331609083308641</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
+        <v>0.1206846500150003</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02679798125823066</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1229044460.330665</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>6223497948.234402</v>
+        <v>2937934195.365408</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004574684036127257</v>
-      </c>
-      <c r="G37" t="b">
+        <v>0.1070208121062479</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03877343092821152</v>
+      </c>
+      <c r="H37" t="b">
         <v>1</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1468967253.226093</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3257981340.437214</v>
+        <v>1993940058.423782</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004117332765199011</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.08344314092445522</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.02757808351596779</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>996970008.0324022</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>4320887542.542223</v>
+        <v>2145127537.846158</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002777010181435896</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
+        <v>0.1559755100495376</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0226691971146871</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1072563740.884935</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>6635367392.177699</v>
+        <v>1439316843.42497</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004008438687107326</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
+        <v>0.1438228081507928</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.04826134881240125</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>719658402.6051879</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>5452968993.694386</v>
+        <v>1874247953.157775</v>
       </c>
       <c r="F41" t="n">
-        <v>0.00126741981372888</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
+        <v>0.1640317126550101</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.04738265890578162</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2</v>
+      </c>
+      <c r="J41" t="n">
+        <v>937124061.3357861</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5676654014.606775</v>
+        <v>3556552683.847092</v>
       </c>
       <c r="F42" t="n">
-        <v>0.004297077182704873</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
+        <v>0.1050554298379538</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.02849129114412992</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1778276340.164565</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6739244289.258439</v>
+        <v>2776795454.993762</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004143543809753548</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
+        <v>0.1485641376038041</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02350318685394902</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1388397747.87362</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>5473924132.44741</v>
+        <v>1434239495.065227</v>
       </c>
       <c r="F44" t="n">
-        <v>0.002274662404326717</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
+        <v>0.09431647601548936</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02562844695526112</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>717119740.4784077</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>4302500508.247403</v>
+        <v>2009553118.799306</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001447048105315055</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
+        <v>0.1753702539754509</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.05005349922615192</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1004776550.66232</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>9730776194.820755</v>
+        <v>3846319643.012958</v>
       </c>
       <c r="F46" t="n">
-        <v>0.003737788737076594</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
+        <v>0.17044397722955</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.05360262355748337</v>
+      </c>
+      <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1923159781.819275</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>9490588640.467344</v>
+        <v>3165714358.440056</v>
       </c>
       <c r="F47" t="n">
-        <v>0.003340733971590839</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
+        <v>0.1278450912858018</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.05246942091893662</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1582857130.3914</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>6170288388.463839</v>
+        <v>3301513179.567072</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002314070077400348</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
+        <v>0.08689268393454204</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03328298287905101</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1650756664.172837</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>4477510041.605516</v>
+        <v>1571452070.216341</v>
       </c>
       <c r="F49" t="n">
-        <v>0.005558592432561407</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
+        <v>0.195153765142242</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03695195310544105</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>785726055.4897555</v>
       </c>
     </row>
     <row r="50">
@@ -1827,19 +2125,25 @@
         <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>5506730753.693658</v>
+        <v>2633403681.778595</v>
       </c>
       <c r="F50" t="n">
-        <v>0.002773018917071249</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
+        <v>0.1723680073104974</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.03481593600708965</v>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1316701926.324673</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>4693524742.459256</v>
+        <v>1539927422.411257</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004989698270135768</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1760578434857095</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.04767963495687103</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>769963707.2203575</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>8607522211.51963</v>
+        <v>3984550896.187776</v>
       </c>
       <c r="F52" t="n">
-        <v>0.002043300421725794</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2</v>
+        <v>0.1267929055250264</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.03845520572169331</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1992275504.957688</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>7034361578.12413</v>
+        <v>2555509104.032432</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002888394838800901</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
+        <v>0.1886520370629934</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02651681243414807</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1277754614.574875</v>
       </c>
     </row>
     <row r="54">
@@ -1939,19 +2261,25 @@
         <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>5168298230.04425</v>
+        <v>3116018995.16254</v>
       </c>
       <c r="F54" t="n">
-        <v>0.004939303173221276</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
+        <v>0.1688877519037967</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04921531807618017</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1558009491.851909</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>9328823777.951056</v>
+        <v>3913234599.899988</v>
       </c>
       <c r="F55" t="n">
-        <v>0.004308546731729872</v>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
+        <v>0.1470743598350473</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02165757519016949</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1956617270.547226</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>5386303299.360859</v>
+        <v>1625601687.247449</v>
       </c>
       <c r="F56" t="n">
-        <v>0.001947854651376767</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
+        <v>0.1352941623054148</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.05650275915909769</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>812800866.7786596</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>6564916282.343107</v>
+        <v>3736571357.631767</v>
       </c>
       <c r="F57" t="n">
-        <v>0.002977212547864169</v>
-      </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
+        <v>0.1550137726727772</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02310892599187699</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1868285744.596081</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>6541261893.966877</v>
+        <v>1463671999.483164</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002635544291370197</v>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
+        <v>0.1616781153359028</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03188237793874483</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>731836033.6428699</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>6727622518.434423</v>
+        <v>4632788063.993709</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003499693782693485</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
+        <v>0.08873159207371792</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04336993261088517</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2316393976.909966</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>5649264557.872119</v>
+        <v>2976986870.19914</v>
       </c>
       <c r="F60" t="n">
-        <v>0.004086258699584784</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.1287035919141535</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02983994301277109</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1488493502.523989</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>5832259429.097345</v>
+        <v>3171522967.676743</v>
       </c>
       <c r="F61" t="n">
-        <v>0.004704322090243477</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2</v>
+        <v>0.1666586914184483</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.0216790762816484</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1585761447.15293</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>4308708808.664221</v>
+        <v>1379399950.828259</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003125396314238551</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
+        <v>0.1465479780992243</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03175359226012411</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>689699939.7704782</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>6171546178.509145</v>
+        <v>5560468733.824706</v>
       </c>
       <c r="F63" t="n">
-        <v>0.003747375055433199</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
+        <v>0.08183348532584499</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03286926555787135</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2780234359.463945</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3819251254.654373</v>
+        <v>3961234004.831864</v>
       </c>
       <c r="F64" t="n">
-        <v>0.004636606908400381</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1335888384165335</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.0272224250700367</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1980617034.988361</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5721415886.038858</v>
+        <v>5611197514.930633</v>
       </c>
       <c r="F65" t="n">
-        <v>0.003765236445431155</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
+        <v>0.1235973212547539</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02896350356603075</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2805598679.002235</v>
       </c>
     </row>
     <row r="66">
@@ -2275,19 +2669,25 @@
         <v>3</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>6099978235.036345</v>
+        <v>4592369930.947859</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003014078313919835</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
+        <v>0.1418778922206238</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.03464477741228862</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2296184970.060676</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>5872182175.783698</v>
+        <v>2157856293.215971</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004264622300696623</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
+        <v>0.08967977328172326</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.05153466036989131</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1078928235.445368</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6115075293.448068</v>
+        <v>4727871287.148163</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002186714711722786</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
+        <v>0.133234903221701</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.0379865714367808</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2363935682.981286</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>5683835417.670099</v>
+        <v>1690670556.530689</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001077081838013506</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
+        <v>0.1668078342969522</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.04706168805820576</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>845335242.7759128</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>7523652223.164704</v>
+        <v>2352121783.868592</v>
       </c>
       <c r="F70" t="n">
-        <v>0.002456883044994654</v>
-      </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
+        <v>0.09965994984431061</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03460932338665697</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1176060826.043581</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4795613037.587417</v>
+        <v>4138583958.612414</v>
       </c>
       <c r="F71" t="n">
-        <v>0.002762916429961755</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1364098780247374</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02401161816399515</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2069292020.261104</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>6367035492.393</v>
+        <v>1499508939.949464</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001773875794605204</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
+        <v>0.1056083220461564</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.04528912042657088</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>749754496.564661</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>5346197127.497622</v>
+        <v>2739721098.037138</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001385487572385739</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
+        <v>0.08433251202933786</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.04948429659426806</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1369860568.372706</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>5236384916.907993</v>
+        <v>3211471027.403804</v>
       </c>
       <c r="F74" t="n">
-        <v>0.00500861936097044</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
+        <v>0.1540649611317501</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02525753025184564</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1605735560.194794</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>7753517263.071996</v>
+        <v>1928639544.956765</v>
       </c>
       <c r="F75" t="n">
-        <v>0.004510239195802731</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
+        <v>0.1576426187814073</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03000263415392656</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>964319742.6930443</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>6006600491.480645</v>
+        <v>4153055563.723894</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002121281916308111</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
+        <v>0.08774743707677045</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.03048129923653124</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2076527772.532936</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>7035913538.613993</v>
+        <v>1433472485.193689</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005809342545890355</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>3</v>
+        <v>0.1809884040312017</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02984647546931924</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>716736219.9271197</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4789804387.655457</v>
+        <v>4379661203.874785</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004266288826918559</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
+        <v>0.1006328228986068</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.04880338553390474</v>
+      </c>
+      <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>2</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2189830540.021288</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>8404005083.538123</v>
+        <v>1465480975.689604</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002509836199675721</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
+        <v>0.1138943248175662</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.02615023899192962</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>732740515.4560958</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4858705307.100613</v>
+        <v>3753954625.546351</v>
       </c>
       <c r="F80" t="n">
-        <v>0.003243312206313592</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>3</v>
+        <v>0.1035971055088637</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03460366508149432</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1876977299.588599</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>6572930659.727673</v>
+        <v>4226208006.726152</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003436802640986373</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
+        <v>0.09301010462312949</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02704079773738649</v>
+      </c>
+      <c r="H81" t="b">
         <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2113103974.377715</v>
       </c>
     </row>
     <row r="82">
@@ -2723,19 +3213,25 @@
         <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>8182984968.065143</v>
+        <v>4752895598.375213</v>
       </c>
       <c r="F82" t="n">
-        <v>0.005717944152510223</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
+        <v>0.1866515055328426</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02680082913793807</v>
+      </c>
+      <c r="H82" t="b">
         <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>2</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2376447796.44441</v>
       </c>
     </row>
     <row r="83">
@@ -2751,19 +3247,25 @@
         <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>6805950635.226553</v>
+        <v>2261824739.99156</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002879386992114842</v>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2</v>
+        <v>0.1415471707288211</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.02985693650684013</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1130912387.437061</v>
       </c>
     </row>
     <row r="84">
@@ -2779,19 +3281,25 @@
         <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>6302512178.687193</v>
+        <v>2512459835.544024</v>
       </c>
       <c r="F84" t="n">
-        <v>0.004326767418991516</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
+        <v>0.1105157660029193</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04770867740129531</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1256229846.949331</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>5036423753.939663</v>
+        <v>3664623183.339495</v>
       </c>
       <c r="F85" t="n">
-        <v>0.002687699597152346</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1810867968868619</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.03845130605740318</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>3</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1832311724.633449</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>7798062425.67595</v>
+        <v>2712144098.734137</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002423493090447665</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2</v>
+        <v>0.1361555167590961</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02009382803915404</v>
+      </c>
+      <c r="H86" t="b">
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1356072175.450042</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>3273553285.962075</v>
+        <v>1444456991.765429</v>
       </c>
       <c r="F87" t="n">
-        <v>0.00144056810546436</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1791225021346427</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.04071272234256357</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>722228613.4557642</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>6751014346.688028</v>
+        <v>3435390932.695216</v>
       </c>
       <c r="F88" t="n">
-        <v>0.004151711347215856</v>
-      </c>
-      <c r="G88" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
+        <v>0.1219103642835321</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03936600850387861</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>3</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1717695539.130713</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>5011578448.007849</v>
+        <v>3304713103.094382</v>
       </c>
       <c r="F89" t="n">
-        <v>0.003538637727302695</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
+        <v>0.1538835187539937</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03144200612562446</v>
+      </c>
+      <c r="H89" t="b">
         <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>2</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1652356566.753189</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>7151358578.391703</v>
+        <v>1997635740.367216</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003300218075533615</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
+        <v>0.08630653836249287</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.05080608913329417</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>998817939.2913029</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>6385656600.989413</v>
+        <v>2068336554.292791</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003718761248084626</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2</v>
+        <v>0.1777894367876257</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.06168238228428039</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1034168239.51194</v>
       </c>
     </row>
     <row r="92">
@@ -3003,19 +3553,25 @@
         <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>3455182474.354863</v>
+        <v>2293371509.080119</v>
       </c>
       <c r="F92" t="n">
-        <v>0.004036302049342235</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.0748374182702139</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.04700675841381881</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1146685722.395274</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>7074782189.321572</v>
+        <v>4705094940.108015</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001208474540076</v>
-      </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2</v>
+        <v>0.1252962396254786</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04518513201846221</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2352547424.549627</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>6795415392.795513</v>
+        <v>1772363091.997159</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001161516395180166</v>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
+        <v>0.1572967088525962</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.03682689334868614</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>886181514.1569269</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>7246492107.183608</v>
+        <v>2806699290.620386</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002058216610273788</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
+        <v>0.08946505874522709</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04033642591822154</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1403349658.602589</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>6056585986.505597</v>
+        <v>1709930624.192254</v>
       </c>
       <c r="F96" t="n">
-        <v>0.003084316174738855</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
+        <v>0.1075851155048347</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03962013352017152</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>854965329.4203312</v>
       </c>
     </row>
     <row r="97">
@@ -3143,19 +3723,25 @@
         <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5631862266.630054</v>
+        <v>4485555059.237976</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004922071152405592</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
+        <v>0.154985123287659</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.0266788322313228</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>2</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2242777624.492481</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>6340054999.381103</v>
+        <v>3082449617.183668</v>
       </c>
       <c r="F98" t="n">
-        <v>0.003506130646149162</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>3</v>
+        <v>0.08663704819593127</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.0201909437535622</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>2</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1541224798.371843</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3880595696.346463</v>
+        <v>2575416571.937585</v>
       </c>
       <c r="F99" t="n">
-        <v>0.004005584541697866</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1284817486434959</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.0293757888374676</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1287708240.456399</v>
       </c>
     </row>
     <row r="100">
@@ -3227,19 +3825,25 @@
         <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>5445055162.626731</v>
+        <v>3659845159.974566</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002985947221506773</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
+        <v>0.124824349648113</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02019506390947551</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>2</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1829922622.998831</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>8457263068.23386</v>
+        <v>3218527985.58944</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001549391092104031</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
+        <v>0.1406322677026923</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.04836715890989238</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>3</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1609264110.190753</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_7.xlsx
+++ b/output/fit_clients/fit_round_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2369156450.812073</v>
+        <v>2278292414.979264</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1068519228300129</v>
+        <v>0.07726726848949203</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03605560120028098</v>
+        <v>0.03189896565674417</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1184578270.298665</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2184111337.702752</v>
+        <v>1771344626.983711</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1332574190268392</v>
+        <v>0.1792075918319413</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03945666886444617</v>
+        <v>0.04287866025960965</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1092055736.894045</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4536118728.184285</v>
+        <v>3833553215.616459</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1111281956761496</v>
+        <v>0.1409742382005461</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02833235066435006</v>
+        <v>0.02831091349753892</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2268059415.786577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2726238851.652739</v>
+        <v>4212184001.841569</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06782712236706788</v>
+        <v>0.09118079987611172</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04128320128444781</v>
+        <v>0.03698414552535843</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1363119513.098957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2596846845.146275</v>
+        <v>2678316790.360703</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1279739017883064</v>
+        <v>0.1239011105261171</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03487653131642121</v>
+        <v>0.0507252904013596</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1298423387.003772</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1994113184.492815</v>
+        <v>2102107223.196762</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07321799222106279</v>
+        <v>0.07779898379950648</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04867955012759731</v>
+        <v>0.04912429318229054</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>997056653.5712687</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2508154524.143219</v>
+        <v>2631040660.942705</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1406894627002774</v>
+        <v>0.1417069275786365</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03066775414769242</v>
+        <v>0.02502546899145026</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1254077268.690666</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2250288683.792175</v>
+        <v>2021945128.162753</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1836410947599025</v>
+        <v>0.1586046079841246</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03304992392039723</v>
+        <v>0.0356651718315903</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1125144333.091425</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3904144017.861105</v>
+        <v>5036089636.402308</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1396314451140414</v>
+        <v>0.1478804112290374</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05070928831358665</v>
+        <v>0.04206731363083253</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1952072022.901114</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3097709355.450282</v>
+        <v>2763725918.901337</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1698207711398363</v>
+        <v>0.1603705361743595</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04849987095140798</v>
+        <v>0.03866240823872035</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1548854626.978092</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2932358765.345154</v>
+        <v>2472230495.089998</v>
       </c>
       <c r="F12" t="n">
-        <v>0.160176224859077</v>
+        <v>0.1655376862523281</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04804429300600265</v>
+        <v>0.04680984014609771</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1466179394.032978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3374763491.498673</v>
+        <v>4045738758.946867</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09245516463189554</v>
+        <v>0.06618641007196259</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02145617410867734</v>
+        <v>0.02360322076243196</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1687381831.596035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2543387567.675704</v>
+        <v>3586313494.465778</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1845187021006735</v>
+        <v>0.1644579963163432</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0287168917050041</v>
+        <v>0.03046480416778917</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1271693850.91188</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1777168170.338793</v>
+        <v>1229828967.888695</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09535937366611355</v>
+        <v>0.07425500349472781</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0302288652334572</v>
+        <v>0.04909150953212764</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>888584233.1383317</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2261734841.10349</v>
+        <v>2124766634.16503</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08645460480014505</v>
+        <v>0.1028480022575026</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03580411305932634</v>
+        <v>0.03650029986411507</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1130867472.135682</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3360024539.806055</v>
+        <v>3699128190.543442</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1441473176018468</v>
+        <v>0.1087809163433039</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05289374933696223</v>
+        <v>0.03327122245022145</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1680012335.655355</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2751522046.15867</v>
+        <v>3234120666.130108</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1689657420832198</v>
+        <v>0.1229373992234858</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02570695048636176</v>
+        <v>0.03243004809277088</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1375761070.754985</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1371257340.941792</v>
+        <v>936068676.1618136</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1237000334927305</v>
+        <v>0.1803375111134032</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02159468509006371</v>
+        <v>0.02729486520271644</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>685628788.0253216</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2500566190.204822</v>
+        <v>2598090755.026806</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1234248854629619</v>
+        <v>0.1593225614114259</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02128280157080817</v>
+        <v>0.02050673010756869</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1250283067.552797</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2225960003.426246</v>
+        <v>2156634409.717137</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06859416993541109</v>
+        <v>0.09206909931054615</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02846863889699101</v>
+        <v>0.03694392178309401</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1112980015.589805</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2817903962.260734</v>
+        <v>3795638104.217288</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09481617827026045</v>
+        <v>0.1221005864838268</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03996971646812158</v>
+        <v>0.05063325483953859</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1408952053.070742</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1531174417.714404</v>
+        <v>1107417826.623406</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1814384157159445</v>
+        <v>0.1705504344722392</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05086574030371033</v>
+        <v>0.0440380648790946</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>765587189.1058238</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3147151217.282855</v>
+        <v>3608315887.827331</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1194472132805098</v>
+        <v>0.1199660237571437</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03747939738361551</v>
+        <v>0.02690490232848618</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1573575633.514327</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>933107625.3954203</v>
+        <v>983869933.0596347</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1137736425745806</v>
+        <v>0.1168627378031922</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02747466562429726</v>
+        <v>0.02100045594230225</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>466553891.3767879</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1037349005.412152</v>
+        <v>1191508297.419467</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1248513273081794</v>
+        <v>0.1237011415486968</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0367543912591734</v>
+        <v>0.028671799906943</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>518674482.9809156</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4313177493.980921</v>
+        <v>4216257764.89683</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1158906398503083</v>
+        <v>0.1356984680304016</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02527537705723376</v>
+        <v>0.02676314003027607</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2156588740.97219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2519260750.208292</v>
+        <v>2575918621.29434</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1474416779296679</v>
+        <v>0.107217674827083</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04411403125356714</v>
+        <v>0.03391592654444726</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1259630344.04608</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4839637222.633798</v>
+        <v>4231313491.976591</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1236622867369255</v>
+        <v>0.1433104028256009</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04186214011898414</v>
+        <v>0.03751130142825478</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2419818569.268169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1574519579.436618</v>
+        <v>1528874122.691166</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1071178630387216</v>
+        <v>0.1158861719158728</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02481697315060496</v>
+        <v>0.03158138159624891</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>787259778.2921988</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1437514770.761855</v>
+        <v>978160109.9941812</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08220527837335591</v>
+        <v>0.09538571364582131</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03809732436284297</v>
+        <v>0.03540340966919634</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>718757280.2581216</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1410913834.516539</v>
+        <v>1326233827.789734</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1161278223924809</v>
+        <v>0.08454394000849404</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02750406331549221</v>
+        <v>0.03604845938676747</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>705456966.6873415</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3090111152.058281</v>
+        <v>2842567619.119663</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1599646222984565</v>
+        <v>0.1913963754453944</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05505844687575639</v>
+        <v>0.05932299027778581</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1545055563.520277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1036958750.356454</v>
+        <v>1411888855.653471</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08788979453249093</v>
+        <v>0.08460033046965636</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01970730561305134</v>
+        <v>0.02104723404940926</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>518479406.5753004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>942780853.3485777</v>
+        <v>1053242266.686207</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09506122051518658</v>
+        <v>0.08625752699005257</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03856188477053772</v>
+        <v>0.02867976559599519</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>471390457.3753235</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2458088871.035106</v>
+        <v>2488930173.833899</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1206846500150003</v>
+        <v>0.1388801833639309</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02679798125823066</v>
+        <v>0.02350327280440147</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>2</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1229044460.330665</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2937934195.365408</v>
+        <v>1968268509.932111</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1070208121062479</v>
+        <v>0.1110678950543683</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03877343092821152</v>
+        <v>0.03800146706987125</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1468967253.226093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1993940058.423782</v>
+        <v>1753645599.548466</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08344314092445522</v>
+        <v>0.1191715810537595</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02757808351596779</v>
+        <v>0.03301909150962044</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>996970008.0324022</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2145127537.846158</v>
+        <v>1695270962.313482</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1559755100495376</v>
+        <v>0.1689982614473219</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0226691971146871</v>
+        <v>0.02840030050433325</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1072563740.884935</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1439316843.42497</v>
+        <v>1660072285.011992</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1438228081507928</v>
+        <v>0.1070407147389594</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04826134881240125</v>
+        <v>0.05709030512388013</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>719658402.6051879</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1874247953.157775</v>
+        <v>2226030568.847599</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1640317126550101</v>
+        <v>0.1414710133701692</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04738265890578162</v>
+        <v>0.04530366081093273</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2</v>
-      </c>
-      <c r="J41" t="n">
-        <v>937124061.3357861</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3556552683.847092</v>
+        <v>2644051355.731</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1050554298379538</v>
+        <v>0.08752456436614696</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02849129114412992</v>
+        <v>0.03316991283621475</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1778276340.164565</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2776795454.993762</v>
+        <v>2142613624.614848</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1485641376038041</v>
+        <v>0.1660039943637637</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02350318685394902</v>
+        <v>0.01873848919664456</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1388397747.87362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1434239495.065227</v>
+        <v>2072336705.038674</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09431647601548936</v>
+        <v>0.1022594027172753</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02562844695526112</v>
+        <v>0.03610015655269559</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>717119740.4784077</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2009553118.799306</v>
+        <v>2337171004.532699</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1753702539754509</v>
+        <v>0.1388229847342155</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05005349922615192</v>
+        <v>0.04188929658724666</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1004776550.66232</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3846319643.012958</v>
+        <v>4658390627.956089</v>
       </c>
       <c r="F46" t="n">
-        <v>0.17044397722955</v>
+        <v>0.1605347924052106</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05360262355748337</v>
+        <v>0.03836457149260711</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>2</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1923159781.819275</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3165714358.440056</v>
+        <v>3927820323.082453</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1278450912858018</v>
+        <v>0.1997653545089609</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05246942091893662</v>
+        <v>0.05204006233194572</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1582857130.3914</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3301513179.567072</v>
+        <v>3509313238.890019</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08689268393454204</v>
+        <v>0.09414964514308054</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03328298287905101</v>
+        <v>0.0286873156712509</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1650756664.172837</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1571452070.216341</v>
+        <v>1687037718.667444</v>
       </c>
       <c r="F49" t="n">
-        <v>0.195153765142242</v>
+        <v>0.1798237329287489</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03695195310544105</v>
+        <v>0.03425733968001868</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>785726055.4897555</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2633403681.778595</v>
+        <v>3919832741.562104</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1723680073104974</v>
+        <v>0.1783330795675294</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03481593600708965</v>
+        <v>0.04923536312706262</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1316701926.324673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1539927422.411257</v>
+        <v>1173357178.313604</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1760578434857095</v>
+        <v>0.1859247367240991</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04767963495687103</v>
+        <v>0.03622346306406433</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>769963707.2203575</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3984550896.187776</v>
+        <v>4789694588.489669</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1267929055250264</v>
+        <v>0.1370564066910657</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03845520572169331</v>
+        <v>0.03879470102697107</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1992275504.957688</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2555509104.032432</v>
+        <v>3580978764.523298</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1886520370629934</v>
+        <v>0.1449803447879731</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02651681243414807</v>
+        <v>0.03253162418245806</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>2</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1277754614.574875</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3116018995.16254</v>
+        <v>3019697727.059855</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1688877519037967</v>
+        <v>0.1065513177785223</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04921531807618017</v>
+        <v>0.03550924626943325</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>2</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1558009491.851909</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3913234599.899988</v>
+        <v>4951302047.381237</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1470743598350473</v>
+        <v>0.2006470621911432</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02165757519016949</v>
+        <v>0.03101785304832628</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>2</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1956617270.547226</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1625601687.247449</v>
+        <v>1421830386.350028</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1352941623054148</v>
+        <v>0.09947814429717933</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05650275915909769</v>
+        <v>0.03511564639832002</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>812800866.7786596</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3736571357.631767</v>
+        <v>3663886780.923949</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1550137726727772</v>
+        <v>0.1304137602716067</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02310892599187699</v>
+        <v>0.02208662414102</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>2</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1868285744.596081</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1463671999.483164</v>
+        <v>1525095383.8749</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1616781153359028</v>
+        <v>0.1769944201075519</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03188237793874483</v>
+        <v>0.03923020293366264</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>731836033.6428699</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4632788063.993709</v>
+        <v>4299204972.000492</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08873159207371792</v>
+        <v>0.08296418259008767</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04336993261088517</v>
+        <v>0.03207288484387016</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2316393976.909966</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2976986870.19914</v>
+        <v>2355475810.55444</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1287035919141535</v>
+        <v>0.1449319344472506</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02983994301277109</v>
+        <v>0.0266187346834802</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>2</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1488493502.523989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3171522967.676743</v>
+        <v>3284479501.548065</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1666586914184483</v>
+        <v>0.1773544677554953</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0216790762816484</v>
+        <v>0.0220615594955123</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1585761447.15293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1379399950.828259</v>
+        <v>1414679112.710595</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1465479780992243</v>
+        <v>0.1391157887544838</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03175359226012411</v>
+        <v>0.03735339908556062</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>689699939.7704782</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5560468733.824706</v>
+        <v>4976217228.656388</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08183348532584499</v>
+        <v>0.06779240305550387</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03286926555787135</v>
+        <v>0.03427525024304202</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>2</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2780234359.463945</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3961234004.831864</v>
+        <v>4644803983.772354</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1335888384165335</v>
+        <v>0.1470453775240059</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0272224250700367</v>
+        <v>0.03488379816612855</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1980617034.988361</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5611197514.930633</v>
+        <v>4803777550.533223</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1235973212547539</v>
+        <v>0.152375698909727</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02896350356603075</v>
+        <v>0.02733629204790578</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2805598679.002235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4592369930.947859</v>
+        <v>3597144469.680004</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1418778922206238</v>
+        <v>0.1106615919519503</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03464477741228862</v>
+        <v>0.0385406699900797</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>2</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2296184970.060676</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2157856293.215971</v>
+        <v>2620665825.686876</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08967977328172326</v>
+        <v>0.09355301838205279</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05153466036989131</v>
+        <v>0.03736001494704293</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>2</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1078928235.445368</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4727871287.148163</v>
+        <v>5438592902.886933</v>
       </c>
       <c r="F68" t="n">
-        <v>0.133234903221701</v>
+        <v>0.1022717301007808</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0379865714367808</v>
+        <v>0.03527001166287776</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>2</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2363935682.981286</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1690670556.530689</v>
+        <v>2169005614.201015</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1668078342969522</v>
+        <v>0.1743725957070471</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04706168805820576</v>
+        <v>0.0492439498981691</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>845335242.7759128</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2352121783.868592</v>
+        <v>2504363486.473574</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09965994984431061</v>
+        <v>0.09828747419132748</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03460932338665697</v>
+        <v>0.0457750111317826</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>2</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1176060826.043581</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4138583958.612414</v>
+        <v>4824857575.989664</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1364098780247374</v>
+        <v>0.1345111415787029</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02401161816399515</v>
+        <v>0.0264503517083288</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>2</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2069292020.261104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1499508939.949464</v>
+        <v>1459926638.585215</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1056083220461564</v>
+        <v>0.1057186846412888</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04528912042657088</v>
+        <v>0.04141309969777815</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>749754496.564661</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2739721098.037138</v>
+        <v>2216189022.78793</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08433251202933786</v>
+        <v>0.09853106723129701</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04948429659426806</v>
+        <v>0.03270673115391475</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>3</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1369860568.372706</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3211471027.403804</v>
+        <v>2736905904.607071</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1540649611317501</v>
+        <v>0.1665429917768168</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02525753025184564</v>
+        <v>0.03310397113753743</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>2</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1605735560.194794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1928639544.956765</v>
+        <v>1827626992.33162</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1576426187814073</v>
+        <v>0.1640050472589326</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03000263415392656</v>
+        <v>0.03375293690578695</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>964319742.6930443</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4153055563.723894</v>
+        <v>4410184733.034192</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08774743707677045</v>
+        <v>0.07694980222200308</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03048129923653124</v>
+        <v>0.02073697174186644</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2076527772.532936</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1433472485.193689</v>
+        <v>1558951780.470229</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1809884040312017</v>
+        <v>0.152682722878103</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02984647546931924</v>
+        <v>0.02684604231178595</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>716736219.9271197</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4379661203.874785</v>
+        <v>3753332860.293926</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1006328228986068</v>
+        <v>0.09602746326084383</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04880338553390474</v>
+        <v>0.04449786916269413</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>2</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2189830540.021288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1465480975.689604</v>
+        <v>1851910724.215783</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1138943248175662</v>
+        <v>0.1084750074967648</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02615023899192962</v>
+        <v>0.02713493617240501</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>732740515.4560958</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3753954625.546351</v>
+        <v>4726879754.117838</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1035971055088637</v>
+        <v>0.09759777336785538</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03460366508149432</v>
+        <v>0.03836234453779961</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
         <v>1</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1876977299.588599</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4226208006.726152</v>
+        <v>5182191681.928573</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09301010462312949</v>
+        <v>0.1107722677405333</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02704079773738649</v>
+        <v>0.02197286890199888</v>
       </c>
       <c r="H81" t="b">
         <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2113103974.377715</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4752895598.375213</v>
+        <v>5495324364.17048</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1866515055328426</v>
+        <v>0.180883454448404</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02680082913793807</v>
+        <v>0.0279326102173233</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>2</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2376447796.44441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2261824739.99156</v>
+        <v>1615778926.686151</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1415471707288211</v>
+        <v>0.1385967599030013</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02985693650684013</v>
+        <v>0.04539772579716353</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1130912387.437061</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2512459835.544024</v>
+        <v>1787791619.83641</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1105157660029193</v>
+        <v>0.07492925785290569</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04770867740129531</v>
+        <v>0.04895825886388368</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1256229846.949331</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3664623183.339495</v>
+        <v>2801722446.267229</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1810867968868619</v>
+        <v>0.1764053666188227</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03845130605740318</v>
+        <v>0.05324518216491087</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>3</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1832311724.633449</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2712144098.734137</v>
+        <v>2703742061.856423</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1361555167590961</v>
+        <v>0.1063191139577673</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02009382803915404</v>
+        <v>0.01763374448924866</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1356072175.450042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1444456991.765429</v>
+        <v>1289882877.957665</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1791225021346427</v>
+        <v>0.184943994252027</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04071272234256357</v>
+        <v>0.0419323787887769</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>722228613.4557642</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3435390932.695216</v>
+        <v>2953507409.420035</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1219103642835321</v>
+        <v>0.1537480511547111</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03936600850387861</v>
+        <v>0.03382545651527924</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>3</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1717695539.130713</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3304713103.094382</v>
+        <v>3277910033.05644</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1538835187539937</v>
+        <v>0.156666369992793</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03144200612562446</v>
+        <v>0.0307038129703106</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>2</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1652356566.753189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1997635740.367216</v>
+        <v>2037532891.977405</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08630653836249287</v>
+        <v>0.09573026477312288</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05080608913329417</v>
+        <v>0.04870861528528514</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>998817939.2913029</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2068336554.292791</v>
+        <v>1686054006.275219</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1777894367876257</v>
+        <v>0.1840842756191836</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06168238228428039</v>
+        <v>0.05736758302218056</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1034168239.51194</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2293371509.080119</v>
+        <v>2225169742.138388</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0748374182702139</v>
+        <v>0.09217933769599736</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04700675841381881</v>
+        <v>0.0440955547330177</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1146685722.395274</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4705094940.108015</v>
+        <v>4629752732.561838</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1252962396254786</v>
+        <v>0.1199101966827464</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04518513201846221</v>
+        <v>0.03732973885654282</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>2</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2352547424.549627</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1772363091.997159</v>
+        <v>2282726640.49974</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1572967088525962</v>
+        <v>0.1030545252739689</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03682689334868614</v>
+        <v>0.03954155527954355</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>886181514.1569269</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2806699290.620386</v>
+        <v>2509465535.468174</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08946505874522709</v>
+        <v>0.1210741257043768</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04033642591822154</v>
+        <v>0.03555123054900922</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>2</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1403349658.602589</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1709930624.192254</v>
+        <v>2121814407.673945</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1075851155048347</v>
+        <v>0.1327981523107386</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03962013352017152</v>
+        <v>0.04178461001871966</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>854965329.4203312</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4485555059.237976</v>
+        <v>4662444795.563867</v>
       </c>
       <c r="F97" t="n">
-        <v>0.154985123287659</v>
+        <v>0.1279542380428854</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0266788322313228</v>
+        <v>0.02922970047755783</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>2</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2242777624.492481</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3082449617.183668</v>
+        <v>2706913186.828136</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08663704819593127</v>
+        <v>0.1126599641975684</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0201909437535622</v>
+        <v>0.0276621399323792</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>2</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1541224798.371843</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2575416571.937585</v>
+        <v>3050369965.750803</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1284817486434959</v>
+        <v>0.1061093683251819</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0293757888374676</v>
+        <v>0.02485028109090231</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>2</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1287708240.456399</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3659845159.974566</v>
+        <v>3025559151.8173</v>
       </c>
       <c r="F100" t="n">
-        <v>0.124824349648113</v>
+        <v>0.1183197647280282</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02019506390947551</v>
+        <v>0.02461278351034994</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>2</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1829922622.998831</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3218527985.58944</v>
+        <v>2809992615.236872</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1406322677026923</v>
+        <v>0.1767410566554696</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04836715890989238</v>
+        <v>0.03729481309467339</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>3</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1609264110.190753</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_7.xlsx
+++ b/output/fit_clients/fit_round_7.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2278292414.979264</v>
+        <v>2375870090.324152</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07726726848949203</v>
+        <v>0.08612026396458963</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03189896565674417</v>
+        <v>0.04534644713483072</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1771344626.983711</v>
+        <v>2508755393.679269</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1792075918319413</v>
+        <v>0.1247411084771339</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04287866025960965</v>
+        <v>0.04226711519643937</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3833553215.616459</v>
+        <v>4483318259.140274</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1409742382005461</v>
+        <v>0.159882300637562</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02831091349753892</v>
+        <v>0.03454419956471275</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4212184001.841569</v>
+        <v>3391739585.997951</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09118079987611172</v>
+        <v>0.1100815485155333</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03698414552535843</v>
+        <v>0.0399984870779754</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2678316790.360703</v>
+        <v>2692127120.966284</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1239011105261171</v>
+        <v>0.1295619747897799</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0507252904013596</v>
+        <v>0.0463202222911008</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2102107223.196762</v>
+        <v>2298648977.798375</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07779898379950648</v>
+        <v>0.1014954720422395</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04912429318229054</v>
+        <v>0.03236162165848915</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2631040660.942705</v>
+        <v>3370776763.030729</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1417069275786365</v>
+        <v>0.1543696292325739</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02502546899145026</v>
+        <v>0.03269477988478096</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2021945128.162753</v>
+        <v>1871716432.228527</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1586046079841246</v>
+        <v>0.1806482589126696</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0356651718315903</v>
+        <v>0.02498021406931149</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5036089636.402308</v>
+        <v>5649993252.53127</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1478804112290374</v>
+        <v>0.1690118929689065</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04206731363083253</v>
+        <v>0.04815934126913488</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2763725918.901337</v>
+        <v>2888052522.870325</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1603705361743595</v>
+        <v>0.1695285616152409</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03866240823872035</v>
+        <v>0.03829108954103234</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2472230495.089998</v>
+        <v>2000930718.629165</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1655376862523281</v>
+        <v>0.1343134736660623</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04680984014609771</v>
+        <v>0.05134658919208027</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4045738758.946867</v>
+        <v>4555967969.774785</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06618641007196259</v>
+        <v>0.06678491826152695</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02360322076243196</v>
+        <v>0.02669606707964505</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3586313494.465778</v>
+        <v>3216942025.948736</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1644579963163432</v>
+        <v>0.1776149196047181</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03046480416778917</v>
+        <v>0.03829954414534612</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1229828967.888695</v>
+        <v>1456358657.709162</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07425500349472781</v>
+        <v>0.08900778195309382</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04909150953212764</v>
+        <v>0.04854825188113653</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2124766634.16503</v>
+        <v>2604564117.320488</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1028480022575026</v>
+        <v>0.09310027861406471</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03650029986411507</v>
+        <v>0.04347772198243401</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3699128190.543442</v>
+        <v>4883283507.918099</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1087809163433039</v>
+        <v>0.1234168513822827</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03327122245022145</v>
+        <v>0.04807105637373752</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3234120666.130108</v>
+        <v>3179239745.8326</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1229373992234858</v>
+        <v>0.1340812215523014</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03243004809277088</v>
+        <v>0.03421717278626384</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>936068676.1618136</v>
+        <v>876723895.634865</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1803375111134032</v>
+        <v>0.1793771296954317</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02729486520271644</v>
+        <v>0.01891002889468256</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2598090755.026806</v>
+        <v>2416582382.328921</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1593225614114259</v>
+        <v>0.1587537861530927</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02050673010756869</v>
+        <v>0.02486091661432945</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2156634409.717137</v>
+        <v>2108932072.356154</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09206909931054615</v>
+        <v>0.08418245564295286</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03694392178309401</v>
+        <v>0.03410111563265471</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3795638104.217288</v>
+        <v>2642689743.875084</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1221005864838268</v>
+        <v>0.1338110583905855</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05063325483953859</v>
+        <v>0.04284327374311772</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1107417826.623406</v>
+        <v>1405352751.738301</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1705504344722392</v>
+        <v>0.1469654837881463</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0440380648790946</v>
+        <v>0.04896732885795773</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3608315887.827331</v>
+        <v>3328451017.355996</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1199660237571437</v>
+        <v>0.1216743586518085</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02690490232848618</v>
+        <v>0.02782134108433146</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>983869933.0596347</v>
+        <v>1245997860.852256</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1168627378031922</v>
+        <v>0.09872220034726147</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02100045594230225</v>
+        <v>0.02612534383468557</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1191508297.419467</v>
+        <v>1367384472.502473</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1237011415486968</v>
+        <v>0.08057672109033721</v>
       </c>
       <c r="G26" t="n">
-        <v>0.028671799906943</v>
+        <v>0.0351095849886804</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4216257764.89683</v>
+        <v>3278638468.554389</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1356984680304016</v>
+        <v>0.1337688783229567</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02676314003027607</v>
+        <v>0.02559697362882482</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2575918621.29434</v>
+        <v>2746783305.757855</v>
       </c>
       <c r="F28" t="n">
-        <v>0.107217674827083</v>
+        <v>0.1076723784806045</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03391592654444726</v>
+        <v>0.03385629634303332</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4231313491.976591</v>
+        <v>3914545370.308221</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1433104028256009</v>
+        <v>0.1405504308522558</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03751130142825478</v>
+        <v>0.03457531194248385</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1528874122.691166</v>
+        <v>1655407314.811377</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1158861719158728</v>
+        <v>0.116605734520513</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03158138159624891</v>
+        <v>0.03510106956711607</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>978160109.9941812</v>
+        <v>1327652237.358764</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09538571364582131</v>
+        <v>0.105457284074356</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03540340966919634</v>
+        <v>0.04048730290858604</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1326233827.789734</v>
+        <v>1399369111.549063</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08454394000849404</v>
+        <v>0.09691008401518449</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03604845938676747</v>
+        <v>0.03453655140669056</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2842567619.119663</v>
+        <v>2799645260.031264</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1913963754453944</v>
+        <v>0.1666246006750112</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05932299027778581</v>
+        <v>0.05624548860197849</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1411888855.653471</v>
+        <v>1428597101.178033</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08460033046965636</v>
+        <v>0.1024552884311945</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02104723404940926</v>
+        <v>0.02295841691953758</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1053242266.686207</v>
+        <v>1111850033.697173</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08625752699005257</v>
+        <v>0.07518077522021908</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02867976559599519</v>
+        <v>0.04370326761958836</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2488930173.833899</v>
+        <v>2930967362.516903</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1388801833639309</v>
+        <v>0.112021970601553</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02350327280440147</v>
+        <v>0.02477624569803471</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1968268509.932111</v>
+        <v>2717674764.147496</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1110678950543683</v>
+        <v>0.07913144486305713</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03800146706987125</v>
+        <v>0.04138969997230699</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1753645599.548466</v>
+        <v>1923558636.578873</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1191715810537595</v>
+        <v>0.09634711613543252</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03301909150962044</v>
+        <v>0.03472072062676178</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1695270962.313482</v>
+        <v>2026686523.980628</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1689982614473219</v>
+        <v>0.1332678215809341</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02840030050433325</v>
+        <v>0.03012591681942308</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1660072285.011992</v>
+        <v>1104896303.521251</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1070407147389594</v>
+        <v>0.1303152770908155</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05709030512388013</v>
+        <v>0.04744259170606049</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2226030568.847599</v>
+        <v>2852096134.366828</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1414710133701692</v>
+        <v>0.1167022417532241</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04530366081093273</v>
+        <v>0.03360721240806656</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2644051355.731</v>
+        <v>3514345178.275335</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08752456436614696</v>
+        <v>0.1100058962590828</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03316991283621475</v>
+        <v>0.04132638495829987</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2142613624.614848</v>
+        <v>2493107084.378292</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1660039943637637</v>
+        <v>0.1550349015112026</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01873848919664456</v>
+        <v>0.01821412440000884</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2072336705.038674</v>
+        <v>1501240856.727297</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1022594027172753</v>
+        <v>0.09061129038570756</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03610015655269559</v>
+        <v>0.02372843800659218</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2337171004.532699</v>
+        <v>1678157659.75246</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1388229847342155</v>
+        <v>0.1344936657857639</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04188929658724666</v>
+        <v>0.04423131126639471</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4658390627.956089</v>
+        <v>5040371817.971527</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1605347924052106</v>
+        <v>0.1300588504812144</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03836457149260711</v>
+        <v>0.04830658073648973</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3927820323.082453</v>
+        <v>4058351111.29016</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1997653545089609</v>
+        <v>0.198779921460774</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05204006233194572</v>
+        <v>0.04753051339026048</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3509313238.890019</v>
+        <v>4033794416.206028</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09414964514308054</v>
+        <v>0.1059982595377866</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0286873156712509</v>
+        <v>0.0275452713123445</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1687037718.667444</v>
+        <v>1893366482.723831</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1798237329287489</v>
+        <v>0.1333120893278795</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03425733968001868</v>
+        <v>0.03494037412919716</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3919832741.562104</v>
+        <v>3904188630.438839</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1783330795675294</v>
+        <v>0.1532852861986133</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04923536312706262</v>
+        <v>0.03461265087334757</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1173357178.313604</v>
+        <v>1290316052.269198</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1859247367240991</v>
+        <v>0.1378178268078105</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03622346306406433</v>
+        <v>0.03623558855762871</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4789694588.489669</v>
+        <v>4979046520.561235</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1370564066910657</v>
+        <v>0.1012647768983671</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03879470102697107</v>
+        <v>0.04183173752937366</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3580978764.523298</v>
+        <v>2603989108.657047</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1449803447879731</v>
+        <v>0.1433620764289331</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03253162418245806</v>
+        <v>0.02332928339107675</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3019697727.059855</v>
+        <v>3683958042.294224</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1065513177785223</v>
+        <v>0.1211055269527309</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03550924626943325</v>
+        <v>0.0351199855654364</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4951302047.381237</v>
+        <v>3571348234.050151</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2006470621911432</v>
+        <v>0.1860169892430677</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03101785304832628</v>
+        <v>0.02297333407354445</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1421830386.350028</v>
+        <v>1729302009.454237</v>
       </c>
       <c r="F56" t="n">
-        <v>0.09947814429717933</v>
+        <v>0.1125156058891957</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03511564639832002</v>
+        <v>0.04469092798017556</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3663886780.923949</v>
+        <v>4370218116.780838</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1304137602716067</v>
+        <v>0.1331073238951291</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02208662414102</v>
+        <v>0.02123668485593557</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1525095383.8749</v>
+        <v>1611428379.693699</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1769944201075519</v>
+        <v>0.1581237925007847</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03923020293366264</v>
+        <v>0.03840849291693398</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4299204972.000492</v>
+        <v>4610021185.46712</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08296418259008767</v>
+        <v>0.1066823537346822</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03207288484387016</v>
+        <v>0.04554842712500359</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,16 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2355475810.55444</v>
+        <v>3308333731.296715</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1449319344472506</v>
+        <v>0.1706801882681719</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0266187346834802</v>
+        <v>0.03163657237310993</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3284479501.548065</v>
+        <v>3228629410.116665</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1773544677554953</v>
+        <v>0.1262832147456941</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0220615594955123</v>
+        <v>0.02180580680794591</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1414679112.710595</v>
+        <v>1782282277.506345</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1391157887544838</v>
+        <v>0.1739533656013718</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03735339908556062</v>
+        <v>0.03370669251420719</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4976217228.656388</v>
+        <v>5354236002.027147</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06779240305550387</v>
+        <v>0.09212427154075402</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03427525024304202</v>
+        <v>0.04203703500325297</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4644803983.772354</v>
+        <v>4758042163.385249</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1470453775240059</v>
+        <v>0.1393860487866272</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03488379816612855</v>
+        <v>0.03207920561985027</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4803777550.533223</v>
+        <v>3732082614.228352</v>
       </c>
       <c r="F65" t="n">
-        <v>0.152375698909727</v>
+        <v>0.1349207548627676</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02733629204790578</v>
+        <v>0.02759888248413733</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3597144469.680004</v>
+        <v>3611667673.263426</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1106615919519503</v>
+        <v>0.1631030185197876</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0385406699900797</v>
+        <v>0.04935396260884872</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2620665825.686876</v>
+        <v>2843036821.981458</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09355301838205279</v>
+        <v>0.06431903189478064</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03736001494704293</v>
+        <v>0.04305541896056243</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5438592902.886933</v>
+        <v>5673270982.645181</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1022717301007808</v>
+        <v>0.1197255668553452</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03527001166287776</v>
+        <v>0.04387330063531048</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2169005614.201015</v>
+        <v>2091751978.557344</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1743725957070471</v>
+        <v>0.1179661543432522</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0492439498981691</v>
+        <v>0.05873881108585115</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2504363486.473574</v>
+        <v>3556156199.394523</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09828747419132748</v>
+        <v>0.07898819625527924</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0457750111317826</v>
+        <v>0.03911195840771624</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4824857575.989664</v>
+        <v>5320966657.147894</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1345111415787029</v>
+        <v>0.1748358805802837</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0264503517083288</v>
+        <v>0.02241839755122523</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1459926638.585215</v>
+        <v>1839074791.804739</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1057186846412888</v>
+        <v>0.07142947709280276</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04141309969777815</v>
+        <v>0.03815525076275393</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2216189022.78793</v>
+        <v>2488071135.303236</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09853106723129701</v>
+        <v>0.1004301715826185</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03270673115391475</v>
+        <v>0.04612263275824186</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2736905904.607071</v>
+        <v>3909630811.144655</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1665429917768168</v>
+        <v>0.1792584485592807</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03310397113753743</v>
+        <v>0.02326549253699658</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1827626992.33162</v>
+        <v>1973658765.859382</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1640050472589326</v>
+        <v>0.1295569424433843</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03375293690578695</v>
+        <v>0.03125281146590212</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4410184733.034192</v>
+        <v>4819859390.917323</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07694980222200308</v>
+        <v>0.08921635239666086</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02073697174186644</v>
+        <v>0.02591244994099659</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1558951780.470229</v>
+        <v>1591258020.854011</v>
       </c>
       <c r="F77" t="n">
-        <v>0.152682722878103</v>
+        <v>0.1407893414112753</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02684604231178595</v>
+        <v>0.02487928555771513</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3753332860.293926</v>
+        <v>3889473188.259733</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09602746326084383</v>
+        <v>0.09650628080225128</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04449786916269413</v>
+        <v>0.04303234392717883</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1851910724.215783</v>
+        <v>1274238327.874085</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1084750074967648</v>
+        <v>0.1510535811159415</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02713493617240501</v>
+        <v>0.03803948358359507</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2670,13 +2670,13 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4726879754.117838</v>
+        <v>5269554912.039362</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09759777336785538</v>
+        <v>0.09630126925797979</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03836234453779961</v>
+        <v>0.0372572984616038</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5182191681.928573</v>
+        <v>4059952255.550965</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1107722677405333</v>
+        <v>0.1149481291904729</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02197286890199888</v>
+        <v>0.0321594689901001</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5495324364.17048</v>
+        <v>5192940677.675688</v>
       </c>
       <c r="F82" t="n">
-        <v>0.180883454448404</v>
+        <v>0.161560460691822</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0279326102173233</v>
+        <v>0.02128332094139757</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1615778926.686151</v>
+        <v>2238282071.588292</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1385967599030013</v>
+        <v>0.1506474159350327</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04539772579716353</v>
+        <v>0.03711389850208804</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1787791619.83641</v>
+        <v>1705159911.642479</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07492925785290569</v>
+        <v>0.1158325400089892</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04895825886388368</v>
+        <v>0.05210573944363681</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2801722446.267229</v>
+        <v>3368773169.408153</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1764053666188227</v>
+        <v>0.123691704690469</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05324518216491087</v>
+        <v>0.04080955702922295</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2703742061.856423</v>
+        <v>2326436491.219157</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1063191139577673</v>
+        <v>0.1609091911613906</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01763374448924866</v>
+        <v>0.02089609766359908</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1289882877.957665</v>
+        <v>944120279.9020373</v>
       </c>
       <c r="F87" t="n">
-        <v>0.184943994252027</v>
+        <v>0.173058196372574</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0419323787887769</v>
+        <v>0.04176669685979557</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2953507409.420035</v>
+        <v>3267720369.185398</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1537480511547111</v>
+        <v>0.1326067293919943</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03382545651527924</v>
+        <v>0.03386698121488858</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3277910033.05644</v>
+        <v>3049103135.716563</v>
       </c>
       <c r="F89" t="n">
-        <v>0.156666369992793</v>
+        <v>0.1300027652210604</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0307038129703106</v>
+        <v>0.03715541382497346</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2037532891.977405</v>
+        <v>1780321145.243154</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09573026477312288</v>
+        <v>0.1159048506286515</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04870861528528514</v>
+        <v>0.04413840260476413</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1686054006.275219</v>
+        <v>2096579240.9829</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1840842756191836</v>
+        <v>0.1687322804505336</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05736758302218056</v>
+        <v>0.0531863646768085</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2225169742.138388</v>
+        <v>2199520698.469046</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09217933769599736</v>
+        <v>0.08008571277254521</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0440955547330177</v>
+        <v>0.03857050276848033</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4629752732.561838</v>
+        <v>3169955313.564668</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1199101966827464</v>
+        <v>0.09774415611109891</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03732973885654282</v>
+        <v>0.05351975306267809</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,16 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2282726640.49974</v>
+        <v>1681370481.592641</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1030545252739689</v>
+        <v>0.1276019018256978</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03954155527954355</v>
+        <v>0.03962727986387399</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2509465535.468174</v>
+        <v>3245021234.197998</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1210741257043768</v>
+        <v>0.09963566450529232</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03555123054900922</v>
+        <v>0.04369049161149114</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2121814407.673945</v>
+        <v>1460866347.311825</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1327981523107386</v>
+        <v>0.09498336540488937</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04178461001871966</v>
+        <v>0.04439106981301197</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4662444795.563867</v>
+        <v>3669126341.044247</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1279542380428854</v>
+        <v>0.164586292820638</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02922970047755783</v>
+        <v>0.02822533394970644</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2706913186.828136</v>
+        <v>2916360528.619117</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1126599641975684</v>
+        <v>0.08793921654759099</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0276621399323792</v>
+        <v>0.02578304089067752</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3050369965.750803</v>
+        <v>3322089191.603294</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1061093683251819</v>
+        <v>0.1098233836927596</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02485028109090231</v>
+        <v>0.02881949392406086</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3025559151.8173</v>
+        <v>3997696146.50455</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1183197647280282</v>
+        <v>0.1403612251934334</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02461278351034994</v>
+        <v>0.02445212712387783</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2809992615.236872</v>
+        <v>3046892216.993283</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1767410566554696</v>
+        <v>0.2215252365090583</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03729481309467339</v>
+        <v>0.03955441675505114</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_7.xlsx
+++ b/output/fit_clients/fit_round_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2375870090.324152</v>
+        <v>1874465305.67038</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08612026396458963</v>
+        <v>0.1144875168512621</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04534644713483072</v>
+        <v>0.0370280629084809</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2508755393.679269</v>
+        <v>2439823071.074119</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1247411084771339</v>
+        <v>0.1755668971241415</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04226711519643937</v>
+        <v>0.03270871955759666</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4483318259.140274</v>
+        <v>3905728909.398428</v>
       </c>
       <c r="F4" t="n">
-        <v>0.159882300637562</v>
+        <v>0.1251566666610231</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03454419956471275</v>
+        <v>0.02778552638223565</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7</v>
+      </c>
+      <c r="K4" t="n">
+        <v>216.0692800690359</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3391739585.997951</v>
+        <v>3618324639.180583</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1100815485155333</v>
+        <v>0.1102096233897663</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0399984870779754</v>
+        <v>0.04999772328744031</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2692127120.966284</v>
+        <v>2796447807.079312</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1295619747897799</v>
+        <v>0.1226569239481866</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0463202222911008</v>
+        <v>0.0455714692375534</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2298648977.798375</v>
+        <v>2885720548.256278</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1014954720422395</v>
+        <v>0.06759156975245427</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03236162165848915</v>
+        <v>0.04161058640024668</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3370776763.030729</v>
+        <v>3469296135.046245</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1543696292325739</v>
+        <v>0.1561706359394188</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03269477988478096</v>
+        <v>0.02434766777765379</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>7</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1871716432.228527</v>
+        <v>1400976638.769079</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1806482589126696</v>
+        <v>0.1266523307841665</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02498021406931149</v>
+        <v>0.02652549146959478</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5649993252.53127</v>
+        <v>5512725624.807012</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1690118929689065</v>
+        <v>0.2152713489228836</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04815934126913488</v>
+        <v>0.04462613640892241</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>7</v>
+      </c>
+      <c r="K10" t="n">
+        <v>239.1799188005509</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2888052522.870325</v>
+        <v>3077055637.437964</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1695285616152409</v>
+        <v>0.1860011945611659</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03829108954103234</v>
+        <v>0.03256828080865649</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6</v>
+      </c>
+      <c r="K11" t="n">
+        <v>149.9946273214821</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2000930718.629165</v>
+        <v>2040722634.750998</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1343134736660623</v>
+        <v>0.1484151603993648</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05134658919208027</v>
+        <v>0.04189256092060777</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +892,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4555967969.774785</v>
+        <v>5061259327.718256</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06678491826152695</v>
+        <v>0.08466808964784203</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02669606707964505</v>
+        <v>0.02889838334041133</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>7</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3216942025.948736</v>
+        <v>3262751740.44038</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1776149196047181</v>
+        <v>0.1258896569524637</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03829954414534612</v>
+        <v>0.02761806764405576</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1456358657.709162</v>
+        <v>1846542117.418508</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08900778195309382</v>
+        <v>0.07686601118121079</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04854825188113653</v>
+        <v>0.03667912997542508</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2604564117.320488</v>
+        <v>2130612663.291076</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09310027861406471</v>
+        <v>0.1000210400746737</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04347772198243401</v>
+        <v>0.03695474548876825</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1032,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4883283507.918099</v>
+        <v>3313631380.58708</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1234168513822827</v>
+        <v>0.1459214342972029</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04807105637373752</v>
+        <v>0.04733229302799156</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>6</v>
+      </c>
+      <c r="K17" t="n">
+        <v>149.2003657663106</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3179239745.8326</v>
+        <v>3732578027.775357</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1340812215523014</v>
+        <v>0.1211547197486215</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03421717278626384</v>
+        <v>0.02839267785692914</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>7</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>876723895.634865</v>
+        <v>1220534402.248592</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1793771296954317</v>
+        <v>0.179582459381204</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01891002889468256</v>
+        <v>0.02183800628750452</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2416582382.328921</v>
+        <v>2637412841.311419</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1587537861530927</v>
+        <v>0.1090600781664193</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02486091661432945</v>
+        <v>0.02617615305505126</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2108932072.356154</v>
+        <v>2679437323.493366</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08418245564295286</v>
+        <v>0.06967072248892901</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03410111563265471</v>
+        <v>0.03432077027217963</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1209,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2642689743.875084</v>
+        <v>2833774556.528886</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1338110583905855</v>
+        <v>0.09881819465699812</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04284327374311772</v>
+        <v>0.04171173281294433</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>5</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1405352751.738301</v>
+        <v>968134872.3878002</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1469654837881463</v>
+        <v>0.1794565332477866</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04896732885795773</v>
+        <v>0.03558597424126182</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1273,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3328451017.355996</v>
+        <v>2897995394.155989</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1216743586518085</v>
+        <v>0.1499628988270228</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02782134108433146</v>
+        <v>0.03724508240289219</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3</v>
+      </c>
+      <c r="J24" t="n">
+        <v>6</v>
+      </c>
+      <c r="K24" t="n">
+        <v>114.1483599415145</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1316,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1245997860.852256</v>
+        <v>1030813337.398574</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09872220034726147</v>
+        <v>0.07820411518713821</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02612534383468557</v>
+        <v>0.02068877941183963</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1367384472.502473</v>
+        <v>1416196341.064619</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08057672109033721</v>
+        <v>0.08720928499252242</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0351095849886804</v>
+        <v>0.03501409697812094</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1380,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3278638468.554389</v>
+        <v>3413118565.041018</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1337688783229567</v>
+        <v>0.1134884057894452</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02559697362882482</v>
+        <v>0.02469092905055291</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3</v>
+      </c>
+      <c r="J27" t="n">
+        <v>6</v>
+      </c>
+      <c r="K27" t="n">
+        <v>137.1938298197542</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2746783305.757855</v>
+        <v>3401983283.738419</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1076723784806045</v>
+        <v>0.1160089390796395</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03385629634303332</v>
+        <v>0.0364899865756927</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>5</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3914545370.308221</v>
+        <v>5021080566.403787</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1405504308522558</v>
+        <v>0.1036198875679949</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03457531194248385</v>
+        <v>0.03809319163471041</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>6</v>
+      </c>
+      <c r="J29" t="n">
+        <v>7</v>
+      </c>
+      <c r="K29" t="n">
+        <v>242.0189854574665</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1655407314.811377</v>
+        <v>2031729826.098555</v>
       </c>
       <c r="F30" t="n">
-        <v>0.116605734520513</v>
+        <v>0.09325681114253173</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03510106956711607</v>
+        <v>0.02604814219387927</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1327652237.358764</v>
+        <v>972315187.8621421</v>
       </c>
       <c r="F31" t="n">
-        <v>0.105457284074356</v>
+        <v>0.09874357397496381</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04048730290858604</v>
+        <v>0.03692363593699379</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1565,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1399369111.549063</v>
+        <v>1667174116.156765</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09691008401518449</v>
+        <v>0.07461886424884641</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03453655140669056</v>
+        <v>0.03787900934704773</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2799645260.031264</v>
+        <v>2182122931.181622</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1666246006750112</v>
+        <v>0.1749747589871203</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05624548860197849</v>
+        <v>0.04190879918847064</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1428597101.178033</v>
+        <v>1422245832.870101</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1024552884311945</v>
+        <v>0.08915459879073559</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02295841691953758</v>
+        <v>0.02177143662539769</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1111850033.697173</v>
+        <v>961670321.145135</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07518077522021908</v>
+        <v>0.09370119722316747</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04370326761958836</v>
+        <v>0.03508352958158159</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2930967362.516903</v>
+        <v>3219725698.296036</v>
       </c>
       <c r="F36" t="n">
-        <v>0.112021970601553</v>
+        <v>0.1170529471460309</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02477624569803471</v>
+        <v>0.01882607332787121</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1740,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2717674764.147496</v>
+        <v>2818570345.644042</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07913144486305713</v>
+        <v>0.07609481341350913</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04138969997230699</v>
+        <v>0.0312856813283364</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1923558636.578873</v>
+        <v>1429065582.245381</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09634711613543252</v>
+        <v>0.1012512436997537</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03472072062676178</v>
+        <v>0.03442767685579081</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1810,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2026686523.980628</v>
+        <v>2168326884.683747</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1332678215809341</v>
+        <v>0.1876018705270539</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03012591681942308</v>
+        <v>0.02590098375808054</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1104896303.521251</v>
+        <v>1556110604.134631</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1303152770908155</v>
+        <v>0.1163215970979956</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04744259170606049</v>
+        <v>0.03649099566252819</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2852096134.366828</v>
+        <v>2027224260.450385</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1167022417532241</v>
+        <v>0.1488837611910281</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03360721240806656</v>
+        <v>0.02898426387948023</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3514345178.275335</v>
+        <v>3757164069.747611</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1100058962590828</v>
+        <v>0.0963233852676063</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04132638495829987</v>
+        <v>0.04487638287554861</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>7</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2493107084.378292</v>
+        <v>2191740417.123062</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1550349015112026</v>
+        <v>0.1686913779227396</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01821412440000884</v>
+        <v>0.01690055973550092</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1985,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1501240856.727297</v>
+        <v>2325458236.465458</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09061129038570756</v>
+        <v>0.06964789471326584</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02372843800659218</v>
+        <v>0.02536489579934085</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1678157659.75246</v>
+        <v>2404081334.304636</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1344936657857639</v>
+        <v>0.125364234520434</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04423131126639471</v>
+        <v>0.04735233680902076</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5040371817.971527</v>
+        <v>3817154403.679419</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1300588504812144</v>
+        <v>0.1613342693469246</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04830658073648973</v>
+        <v>0.04876163010591147</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>4</v>
+      </c>
+      <c r="J46" t="n">
+        <v>6</v>
+      </c>
+      <c r="K46" t="n">
+        <v>215.3277724153403</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4058351111.29016</v>
+        <v>4854219513.276651</v>
       </c>
       <c r="F47" t="n">
-        <v>0.198779921460774</v>
+        <v>0.1612610759781284</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04753051339026048</v>
+        <v>0.05612997552883058</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>2</v>
+      </c>
+      <c r="J47" t="n">
+        <v>7</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2121,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4033794416.206028</v>
+        <v>3437935382.390312</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1059982595377866</v>
+        <v>0.08157359017999255</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0275452713123445</v>
+        <v>0.03674788245167056</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>2</v>
+      </c>
+      <c r="J48" t="n">
+        <v>5</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1893366482.723831</v>
+        <v>1418138413.964274</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1333120893278795</v>
+        <v>0.1499511881959143</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03494037412919716</v>
+        <v>0.03453540698242593</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3904188630.438839</v>
+        <v>3053878267.182671</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1532852861986133</v>
+        <v>0.1585080290053601</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03461265087334757</v>
+        <v>0.03239348732298076</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>2</v>
+      </c>
+      <c r="J50" t="n">
+        <v>4</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2232,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1290316052.269198</v>
+        <v>1152060862.311837</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1378178268078105</v>
+        <v>0.1483128321915686</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03623558855762871</v>
+        <v>0.04003196520557124</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2267,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4979046520.561235</v>
+        <v>3983365477.449901</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1012647768983671</v>
+        <v>0.1243794274868176</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04183173752937366</v>
+        <v>0.05758812296085949</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>4</v>
+      </c>
+      <c r="J52" t="n">
+        <v>7</v>
+      </c>
+      <c r="K52" t="n">
+        <v>230.6745676977211</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2603989108.657047</v>
+        <v>2372743014.534383</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1433620764289331</v>
+        <v>0.1925351989687086</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02332928339107675</v>
+        <v>0.02475249454514007</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3683958042.294224</v>
+        <v>3510528797.267249</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1211055269527309</v>
+        <v>0.1296183390906431</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0351199855654364</v>
+        <v>0.04421658063023198</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3</v>
+      </c>
+      <c r="J54" t="n">
+        <v>6</v>
+      </c>
+      <c r="K54" t="n">
+        <v>178.0034683341618</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3571348234.050151</v>
+        <v>3737802576.615471</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1860169892430677</v>
+        <v>0.2157484910656046</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02297333407354445</v>
+        <v>0.03241236345738101</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3</v>
+      </c>
+      <c r="J55" t="n">
+        <v>6</v>
+      </c>
+      <c r="K55" t="n">
+        <v>177.1697907678084</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1729302009.454237</v>
+        <v>1841949486.501929</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1125156058891957</v>
+        <v>0.1419996427834829</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04469092798017556</v>
+        <v>0.03683371715942664</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2448,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4370218116.780838</v>
+        <v>3467332620.683617</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1331073238951291</v>
+        <v>0.1226577803916485</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02123668485593557</v>
+        <v>0.02694138137174807</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>7</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2483,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1611428379.693699</v>
+        <v>1788853556.486826</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1581237925007847</v>
+        <v>0.1978098874460402</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03840849291693398</v>
+        <v>0.03721379698485393</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2518,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4610021185.46712</v>
+        <v>3941665123.37622</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1066823537346822</v>
+        <v>0.1263091500442082</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04554842712500359</v>
+        <v>0.04790386330678307</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3</v>
+      </c>
+      <c r="J59" t="n">
+        <v>7</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,17 +2553,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3308333731.296715</v>
+        <v>3062244025.257539</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1706801882681719</v>
+        <v>0.2028666731887253</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03163657237310993</v>
+        <v>0.02358053162174602</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3228629410.116665</v>
+        <v>2173092489.793873</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1262832147456941</v>
+        <v>0.113360715755624</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02180580680794591</v>
+        <v>0.031984196493242</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2623,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1782282277.506345</v>
+        <v>1398320361.964115</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1739533656013718</v>
+        <v>0.1268201178961211</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03370669251420719</v>
+        <v>0.03686997869853601</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5354236002.027147</v>
+        <v>3524819622.766089</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09212427154075402</v>
+        <v>0.06504454429439832</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04203703500325297</v>
+        <v>0.04001261967599534</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>3</v>
+      </c>
+      <c r="J63" t="n">
+        <v>7</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2687,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4758042163.385249</v>
+        <v>5136873318.649528</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1393860487866272</v>
+        <v>0.1915807409435025</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03207920561985027</v>
+        <v>0.033645001371565</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>3</v>
+      </c>
+      <c r="J64" t="n">
+        <v>7</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3732082614.228352</v>
+        <v>5444038178.511399</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1349207548627676</v>
+        <v>0.150739800468392</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02759888248413733</v>
+        <v>0.03186521914902701</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>6</v>
+      </c>
+      <c r="J65" t="n">
+        <v>6</v>
+      </c>
+      <c r="K65" t="n">
+        <v>215.6556044685812</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2759,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3611667673.263426</v>
+        <v>4076032420.350188</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1631030185197876</v>
+        <v>0.134101003567462</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04935396260884872</v>
+        <v>0.03474638859802143</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>3</v>
+      </c>
+      <c r="J66" t="n">
+        <v>7</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2843036821.981458</v>
+        <v>2333444784.304174</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06431903189478064</v>
+        <v>0.06889395851387191</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04305541896056243</v>
+        <v>0.0384501067429556</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2829,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5673270982.645181</v>
+        <v>4430038172.830523</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1197255668553452</v>
+        <v>0.1022283535006391</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04387330063531048</v>
+        <v>0.04449851482184907</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>3</v>
+      </c>
+      <c r="J68" t="n">
+        <v>7</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2870,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2091751978.557344</v>
+        <v>2284865926.333326</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1179661543432522</v>
+        <v>0.1778042792826896</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05873881108585115</v>
+        <v>0.04172638154381213</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2899,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3556156199.394523</v>
+        <v>2453939875.731667</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07898819625527924</v>
+        <v>0.0977728310867787</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03911195840771624</v>
+        <v>0.04429129199170546</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2934,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5320966657.147894</v>
+        <v>5034460230.509242</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1748358805802837</v>
+        <v>0.1570431332408451</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02241839755122523</v>
+        <v>0.02387733474358207</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>4</v>
+      </c>
+      <c r="J71" t="n">
+        <v>7</v>
+      </c>
+      <c r="K71" t="n">
+        <v>216.6663194911544</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2971,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1839074791.804739</v>
+        <v>2011979156.817177</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07142947709280276</v>
+        <v>0.09085919215725682</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03815525076275393</v>
+        <v>0.04314261048863504</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3006,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2488071135.303236</v>
+        <v>2740503631.095741</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1004301715826185</v>
+        <v>0.08804993376000594</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04612263275824186</v>
+        <v>0.03554470781280667</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3041,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3909630811.144655</v>
+        <v>3297726722.477397</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1792584485592807</v>
+        <v>0.1478460916240666</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02326549253699658</v>
+        <v>0.02193900473220253</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2</v>
+      </c>
+      <c r="J74" t="n">
+        <v>6</v>
+      </c>
+      <c r="K74" t="n">
+        <v>159.0729565012068</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1973658765.859382</v>
+        <v>2284529712.349389</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1295569424433843</v>
+        <v>0.1049840948196981</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03125281146590212</v>
+        <v>0.02420690797430142</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3119,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4819859390.917323</v>
+        <v>4111309251.125781</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08921635239666086</v>
+        <v>0.08655743164563026</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02591244994099659</v>
+        <v>0.02820702637707721</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>3</v>
+      </c>
+      <c r="J76" t="n">
+        <v>6</v>
+      </c>
+      <c r="K76" t="n">
+        <v>170.7251676271423</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1591258020.854011</v>
+        <v>2249747518.249677</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1407893414112753</v>
+        <v>0.1560276981609894</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02487928555771513</v>
+        <v>0.02868304406249159</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3185,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3889473188.259733</v>
+        <v>3936766180.664991</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09650628080225128</v>
+        <v>0.1297158304198567</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04303234392717883</v>
+        <v>0.05062273095287698</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>2</v>
+      </c>
+      <c r="J78" t="n">
+        <v>7</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1274238327.874085</v>
+        <v>1373637924.092509</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1510535811159415</v>
+        <v>0.1624075202046158</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03803948358359507</v>
+        <v>0.02739517863174657</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5269554912.039362</v>
+        <v>5034707566.464079</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09630126925797979</v>
+        <v>0.07945592676974796</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0372572984616038</v>
+        <v>0.02954993858438632</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>3</v>
+      </c>
+      <c r="J80" t="n">
+        <v>6</v>
+      </c>
+      <c r="K80" t="n">
+        <v>168.7942198623673</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4059952255.550965</v>
+        <v>4463432031.944221</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1149481291904729</v>
+        <v>0.1136655392242161</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0321594689901001</v>
+        <v>0.02326225974434716</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>3</v>
+      </c>
+      <c r="J81" t="n">
+        <v>6</v>
+      </c>
+      <c r="K81" t="n">
+        <v>171.0592984448816</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3329,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5192940677.675688</v>
+        <v>5446847673.733799</v>
       </c>
       <c r="F82" t="n">
-        <v>0.161560460691822</v>
+        <v>0.1852759152921075</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02128332094139757</v>
+        <v>0.02097297122479366</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>3</v>
+      </c>
+      <c r="J82" t="n">
+        <v>7</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2238282071.588292</v>
+        <v>2119877341.948884</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1506474159350327</v>
+        <v>0.1379642853752431</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03711389850208804</v>
+        <v>0.0419699417506058</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1705159911.642479</v>
+        <v>2559018521.977695</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1158325400089892</v>
+        <v>0.0959333598031577</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05210573944363681</v>
+        <v>0.046458897209226</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3368773169.408153</v>
+        <v>2308468789.436279</v>
       </c>
       <c r="F85" t="n">
-        <v>0.123691704690469</v>
+        <v>0.1190600126123691</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04080955702922295</v>
+        <v>0.04631005755995386</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>4</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2326436491.219157</v>
+        <v>2188611480.022878</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1609091911613906</v>
+        <v>0.1702631991735339</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02089609766359908</v>
+        <v>0.01757466555181423</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>944120279.9020373</v>
+        <v>1214828318.455663</v>
       </c>
       <c r="F87" t="n">
-        <v>0.173058196372574</v>
+        <v>0.1506928429230343</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04176669685979557</v>
+        <v>0.03327745826030483</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3539,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3267720369.185398</v>
+        <v>2525779506.747633</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1326067293919943</v>
+        <v>0.1561400371254485</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03386698121488858</v>
+        <v>0.03002564832014053</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" t="n">
+        <v>6</v>
+      </c>
+      <c r="K88" t="n">
+        <v>100.1068125294588</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3049103135.716563</v>
+        <v>2547515136.27019</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1300027652210604</v>
+        <v>0.1315270321609715</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03715541382497346</v>
+        <v>0.04059076257636954</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1780321145.243154</v>
+        <v>1747812170.482823</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1159048506286515</v>
+        <v>0.1243015745762408</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04413840260476413</v>
+        <v>0.04849346308655187</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2096579240.9829</v>
+        <v>1850967979.613638</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1687322804505336</v>
+        <v>0.1285194798788677</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0531863646768085</v>
+        <v>0.06071515042308227</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2199520698.469046</v>
+        <v>2978403878.981502</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08008571277254521</v>
+        <v>0.07316396482038308</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03857050276848033</v>
+        <v>0.02987323071201184</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3169955313.564668</v>
+        <v>3270741281.444328</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09774415611109891</v>
+        <v>0.1303151509226175</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05351975306267809</v>
+        <v>0.04978803661564975</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>3</v>
+      </c>
+      <c r="J93" t="n">
+        <v>6</v>
+      </c>
+      <c r="K93" t="n">
+        <v>145.7105522458945</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1681370481.592641</v>
+        <v>1533239937.076022</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1276019018256978</v>
+        <v>0.165233910231981</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03962727986387399</v>
+        <v>0.03293699369046951</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3245021234.197998</v>
+        <v>2991932769.780807</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09963566450529232</v>
+        <v>0.09482256743689305</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04369049161149114</v>
+        <v>0.04667485942369944</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1460866347.311825</v>
+        <v>1856390295.955267</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09498336540488937</v>
+        <v>0.08891020436504157</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04439106981301197</v>
+        <v>0.02873775910386897</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3864,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3669126341.044247</v>
+        <v>5168586052.892254</v>
       </c>
       <c r="F97" t="n">
-        <v>0.164586292820638</v>
+        <v>0.1735714323085537</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02822533394970644</v>
+        <v>0.02309272133049317</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>3</v>
+      </c>
+      <c r="J97" t="n">
+        <v>6</v>
+      </c>
+      <c r="K97" t="n">
+        <v>209.5764117696748</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2916360528.619117</v>
+        <v>2758973054.400846</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08793921654759099</v>
+        <v>0.1074904069654724</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02578304089067752</v>
+        <v>0.0304124729704341</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>2</v>
+      </c>
+      <c r="J98" t="n">
+        <v>5</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3322089191.603294</v>
+        <v>2755516242.553791</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1098233836927596</v>
+        <v>0.1321091079348647</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02881949392406086</v>
+        <v>0.03530529920838425</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3997696146.50455</v>
+        <v>4596101960.6356</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1403612251934334</v>
+        <v>0.148715979679094</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02445212712387783</v>
+        <v>0.02773833582953687</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>3</v>
+      </c>
+      <c r="J100" t="n">
+        <v>7</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3046892216.993283</v>
+        <v>2298881726.449545</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2215252365090583</v>
+        <v>0.1437417688681998</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03955441675505114</v>
+        <v>0.05231530625627533</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
